--- a/src/gpt_price.xlsx
+++ b/src/gpt_price.xlsx
@@ -475,13 +475,21 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>0.010499999999999999</t>
+          <t>0.01425</t>
         </is>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1" s="2">
-      <c r="A3" s="3" t="n"/>
-      <c r="B3" s="3" t="n"/>
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>glyome</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>0.006749999999999999</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="12.75" customHeight="1" s="2">
       <c r="A4" s="3" t="n"/>

--- a/src/gpt_price.xlsx
+++ b/src/gpt_price.xlsx
@@ -475,7 +475,7 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>0.01425</t>
+          <t>0.039</t>
         </is>
       </c>
     </row>

--- a/src/gpt_price.xlsx
+++ b/src/gpt_price.xlsx
@@ -475,7 +475,7 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.12600000000000003</t>
         </is>
       </c>
     </row>

--- a/src/gpt_price.xlsx
+++ b/src/gpt_price.xlsx
@@ -475,7 +475,7 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>0.12600000000000003</t>
+          <t>0.2190000000000001</t>
         </is>
       </c>
     </row>

--- a/src/gpt_price.xlsx
+++ b/src/gpt_price.xlsx
@@ -475,7 +475,7 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>0.2190000000000001</t>
+          <t>0.2197500000000001</t>
         </is>
       </c>
     </row>
